--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a149c0897170507f/Documentos/GitHub/VelocidadeInternet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\0031216\Desktop\Codigo\SpeedTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_8B7E81778366F20F6235547658668EBFAEDABEA0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EEBF17D7-9B74-450A-A6A7-CCFB7C2F0C1F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CED91A-710B-4D39-8C09-5BE78468EC8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="2400" windowWidth="9300" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Data</t>
   </si>
@@ -30,12 +30,18 @@
   <si>
     <t>Velocidade</t>
   </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,14 +53,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,12 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,18 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,12 +415,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>